--- a/My Papers/Initial Data.xlsx
+++ b/My Papers/Initial Data.xlsx
@@ -1,50 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\812785\Documents\GitHub\QIGA2-Tuned\My Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D620075-D417-4CD2-A8C1-FD27EE2C4D1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Profit</t>
-  </si>
-  <si>
-    <t>Profit
-without the manipulation</t>
-  </si>
-  <si>
-    <t>Profit with manipulation</t>
   </si>
   <si>
     <t>Evaluation</t>
   </si>
   <si>
     <t>Avg</t>
-  </si>
-  <si>
-    <t>Difference</t>
   </si>
   <si>
     <t>Run 1</t>
@@ -55,11 +51,36 @@
   <si>
     <t>Run 3</t>
   </si>
+  <si>
+    <t>Degree of Manipulation</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Difference
+80-0</t>
+  </si>
+  <si>
+    <t>Difference
+90-80</t>
+  </si>
+  <si>
+    <t>Difference
+95-90</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Difference
+92.5-90</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,13 +110,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,6 +1105,357 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7748</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8957</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC6C-4FFD-9909-8658613B9759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492453816"/>
+        <c:axId val="382065504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492453816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382065504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382065504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492453816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1158,6 +1536,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1675,6 +2093,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2259,6 +3193,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC37A3E7-D53F-4EEC-8C6C-F5E1EB4E2C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2563,11 +3538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,116 +3550,629 @@
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>"92.5%"</f>
+        <v>92.5%</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>5662</v>
       </c>
       <c r="D3">
-        <v>7858</v>
+        <v>8957</v>
       </c>
       <c r="E3">
+        <v>8082</v>
+      </c>
+      <c r="F3">
+        <v>5761</v>
+      </c>
+      <c r="G3">
+        <v>7558</v>
+      </c>
+      <c r="H3">
         <f>D3-C3</f>
-        <v>2196</v>
+        <v>3295</v>
+      </c>
+      <c r="I3">
+        <f>E3-D3</f>
+        <v>-875</v>
+      </c>
+      <c r="J3">
+        <f>F3-E3</f>
+        <v>-2321</v>
+      </c>
+      <c r="K3">
+        <f>G3-E3</f>
+        <v>-524</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" ref="B4:B16" si="0">B3+1</f>
+        <v>2</v>
+      </c>
       <c r="C4">
         <v>6406</v>
       </c>
+      <c r="D4">
+        <v>7509</v>
+      </c>
+      <c r="E4">
+        <v>8784</v>
+      </c>
+      <c r="F4">
+        <v>6171</v>
+      </c>
+      <c r="G4">
+        <v>7518</v>
+      </c>
+      <c r="H4">
+        <f>D4-C4</f>
+        <v>1103</v>
+      </c>
+      <c r="I4">
+        <f>E4-D4</f>
+        <v>1275</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J17" si="1">F4-E4</f>
+        <v>-2613</v>
+      </c>
+      <c r="K4">
+        <f>G4-E4</f>
+        <v>-1266</v>
+      </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="C5">
         <v>6920</v>
       </c>
+      <c r="D5">
+        <v>8631</v>
+      </c>
+      <c r="E5">
+        <v>6006</v>
+      </c>
+      <c r="F5">
+        <v>7112</v>
+      </c>
+      <c r="G5">
+        <v>6599</v>
+      </c>
+      <c r="H5">
+        <f>D5-C5</f>
+        <v>1711</v>
+      </c>
+      <c r="I5">
+        <f>E5-D5</f>
+        <v>-2625</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1106</v>
+      </c>
+      <c r="K5">
+        <f>G5-E5</f>
+        <v>593</v>
+      </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="C6">
         <v>5980</v>
       </c>
+      <c r="D6">
+        <v>8005</v>
+      </c>
+      <c r="E6">
+        <v>8233</v>
+      </c>
+      <c r="F6">
+        <v>6308</v>
+      </c>
+      <c r="G6">
+        <v>7781</v>
+      </c>
+      <c r="H6">
+        <f>D6-C6</f>
+        <v>2025</v>
+      </c>
+      <c r="I6">
+        <f>E6-D6</f>
+        <v>228</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-1925</v>
+      </c>
+      <c r="K6">
+        <f>G6-E6</f>
+        <v>-452</v>
+      </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C7">
         <v>9678</v>
       </c>
+      <c r="D7">
+        <v>8149</v>
+      </c>
+      <c r="E7">
+        <v>9078</v>
+      </c>
+      <c r="F7">
+        <v>8516</v>
+      </c>
+      <c r="G7">
+        <v>7075</v>
+      </c>
+      <c r="H7">
+        <f>D7-C7</f>
+        <v>-1529</v>
+      </c>
+      <c r="I7">
+        <f>E7-D7</f>
+        <v>929</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-562</v>
+      </c>
+      <c r="K7">
+        <f>G7-E7</f>
+        <v>-2003</v>
+      </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C8">
         <v>8775</v>
       </c>
+      <c r="D8">
+        <v>8299</v>
+      </c>
+      <c r="E8">
+        <v>6304</v>
+      </c>
+      <c r="F8">
+        <v>8024</v>
+      </c>
+      <c r="G8">
+        <v>6545</v>
+      </c>
+      <c r="H8">
+        <f>D8-C8</f>
+        <v>-476</v>
+      </c>
+      <c r="I8">
+        <f>E8-D8</f>
+        <v>-1995</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1720</v>
+      </c>
+      <c r="K8">
+        <f>G8-E8</f>
+        <v>241</v>
+      </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C9">
         <v>9258</v>
       </c>
+      <c r="D9">
+        <v>6906</v>
+      </c>
+      <c r="E9">
+        <v>8714</v>
+      </c>
+      <c r="F9">
+        <v>6330</v>
+      </c>
+      <c r="G9">
+        <v>8938</v>
+      </c>
+      <c r="H9">
+        <f>D9-C9</f>
+        <v>-2352</v>
+      </c>
+      <c r="I9">
+        <f>E9-D9</f>
+        <v>1808</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-2384</v>
+      </c>
+      <c r="K9">
+        <f>G9-E9</f>
+        <v>224</v>
+      </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="C10">
         <v>7070</v>
       </c>
+      <c r="D10">
+        <v>9303</v>
+      </c>
+      <c r="E10">
+        <v>6348</v>
+      </c>
+      <c r="F10">
+        <v>8694</v>
+      </c>
+      <c r="G10">
+        <v>5359</v>
+      </c>
+      <c r="H10">
+        <f>D10-C10</f>
+        <v>2233</v>
+      </c>
+      <c r="I10">
+        <f>E10-D10</f>
+        <v>-2955</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2346</v>
+      </c>
+      <c r="K10">
+        <f>G10-E10</f>
+        <v>-989</v>
+      </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="C11">
         <v>6954</v>
       </c>
+      <c r="D11">
+        <v>6285</v>
+      </c>
+      <c r="E11">
+        <v>8528</v>
+      </c>
+      <c r="F11">
+        <v>6892</v>
+      </c>
+      <c r="G11">
+        <v>8456</v>
+      </c>
+      <c r="H11">
+        <f>D11-C11</f>
+        <v>-669</v>
+      </c>
+      <c r="I11">
+        <f>E11-D11</f>
+        <v>2243</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-1636</v>
+      </c>
+      <c r="K11">
+        <f>G11-E11</f>
+        <v>-72</v>
+      </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="C12">
         <v>4097</v>
       </c>
+      <c r="D12">
+        <v>6724</v>
+      </c>
+      <c r="E12">
+        <v>9335</v>
+      </c>
+      <c r="F12">
+        <v>5925</v>
+      </c>
+      <c r="G12">
+        <v>9301</v>
+      </c>
+      <c r="H12">
+        <f>D12-C12</f>
+        <v>2627</v>
+      </c>
+      <c r="I12">
+        <f>E12-D12</f>
+        <v>2611</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-3410</v>
+      </c>
+      <c r="K12">
+        <f>G12-E12</f>
+        <v>-34</v>
+      </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="C13">
         <v>8009</v>
       </c>
+      <c r="D13">
+        <v>6061</v>
+      </c>
+      <c r="E13">
+        <v>8936</v>
+      </c>
+      <c r="F13">
+        <v>6960</v>
+      </c>
+      <c r="G13">
+        <v>9744</v>
+      </c>
+      <c r="H13">
+        <f>D13-C13</f>
+        <v>-1948</v>
+      </c>
+      <c r="I13">
+        <f>E13-D13</f>
+        <v>2875</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-1976</v>
+      </c>
+      <c r="K13">
+        <f>G13-E13</f>
+        <v>808</v>
+      </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="C14">
         <v>5388</v>
       </c>
+      <c r="D14">
+        <v>6671</v>
+      </c>
+      <c r="E14">
+        <v>6873</v>
+      </c>
+      <c r="F14">
+        <v>8473</v>
+      </c>
+      <c r="G14">
+        <v>7283</v>
+      </c>
+      <c r="H14">
+        <f>D14-C14</f>
+        <v>1283</v>
+      </c>
+      <c r="I14">
+        <f>E14-D14</f>
+        <v>202</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="K14">
+        <f>G14-E14</f>
+        <v>410</v>
+      </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="C15">
         <v>7225</v>
       </c>
+      <c r="D15">
+        <v>6222</v>
+      </c>
+      <c r="E15">
+        <v>7911</v>
+      </c>
+      <c r="F15">
+        <v>8085</v>
+      </c>
+      <c r="G15">
+        <v>7885</v>
+      </c>
+      <c r="H15">
+        <f>D15-C15</f>
+        <v>-1003</v>
+      </c>
+      <c r="I15">
+        <f>E15-D15</f>
+        <v>1689</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="K15">
+        <f>G15-E15</f>
+        <v>-26</v>
+      </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="C16">
         <v>7786</v>
       </c>
+      <c r="D16">
+        <v>7950</v>
+      </c>
+      <c r="E16">
+        <v>9327</v>
+      </c>
+      <c r="F16">
+        <v>6837</v>
+      </c>
+      <c r="G16">
+        <v>7685</v>
+      </c>
+      <c r="H16">
+        <f>D16-C16</f>
+        <v>164</v>
+      </c>
+      <c r="I16">
+        <f>E16-D16</f>
+        <v>1377</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-2490</v>
+      </c>
+      <c r="K16">
+        <f>G16-E16</f>
+        <v>-1642</v>
+      </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <f>SUM(C3:C16)/13</f>
-        <v>7631.3846153846152</v>
+        <f>SUM(C3:C16)/14</f>
+        <v>7086.2857142857147</v>
       </c>
       <c r="D17">
-        <f>SUM(D3:D16)/13</f>
-        <v>604.46153846153845</v>
+        <f>SUM(D3:D16)/14</f>
+        <v>7548</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E3:E16)/14</f>
+        <v>8032.7857142857147</v>
+      </c>
+      <c r="F17">
+        <f>SUM(F3:F16)/14</f>
+        <v>7149.1428571428569</v>
+      </c>
+      <c r="G17">
+        <f>SUM(G3:G16)/14</f>
+        <v>7694.7857142857147</v>
+      </c>
+      <c r="H17">
+        <f>D17-C17</f>
+        <v>461.71428571428532</v>
+      </c>
+      <c r="I17">
+        <f>E17-D17</f>
+        <v>484.78571428571468</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-883.64285714285779</v>
+      </c>
+      <c r="K17">
+        <f>G17-E17</f>
+        <v>-338</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:G13"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
@@ -2706,19 +4194,19 @@
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
@@ -2911,11 +4399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,19 +4418,19 @@
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
@@ -2950,11 +4438,11 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3178</v>
+        <v>2814</v>
       </c>
       <c r="G4">
         <f>SUM(D4:F4)/3</f>
-        <v>1059.3333333333333</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -2962,11 +4450,11 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4682</v>
+        <v>6048</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G13" si="0">SUM(D5:F5)/3</f>
-        <v>1560.6666666666667</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -2974,11 +4462,11 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>5642</v>
+        <v>6048</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1880.6666666666667</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -2986,11 +4474,11 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>6620</v>
+        <v>7748</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2206.6666666666665</v>
+        <v>2582.6666666666665</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -2998,11 +4486,11 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>7682</v>
+        <v>7748</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2560.6666666666665</v>
+        <v>2582.6666666666665</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -3010,11 +4498,11 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>7682</v>
+        <v>7748</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>2560.6666666666665</v>
+        <v>2582.6666666666665</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -3022,11 +4510,11 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>7682</v>
+        <v>7748</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>2560.6666666666665</v>
+        <v>2582.6666666666665</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -3034,11 +4522,11 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>7682</v>
+        <v>8957</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>2560.6666666666665</v>
+        <v>2985.6666666666665</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -3046,11 +4534,11 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>7858</v>
+        <v>8957</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>2619.3333333333335</v>
+        <v>2985.6666666666665</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -3058,11 +4546,11 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>7858</v>
+        <v>8957</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>2619.3333333333335</v>
+        <v>2985.6666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -3070,5 +4558,6 @@
     <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>